--- a/Table Difference Calculator.xlsx
+++ b/Table Difference Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ardab\OneDrive\Masaüstü\2021-2022\HiWi\nrf9160\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11860CD6-6FF8-4EC6-908E-180BCAD24D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ECB475-0E74-4BD0-A449-FEA613DCBC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D32CC1B-AF36-45A9-A4A9-B40748BA1F19}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{4D32CC1B-AF36-45A9-A4A9-B40748BA1F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60BBD99-82BF-43E1-9280-233DAD57AAAE}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:J22"/>
     </sheetView>
   </sheetViews>
@@ -479,162 +479,162 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>204.5</v>
+        <v>80.7</v>
       </c>
       <c r="B1" s="2">
-        <v>83.9</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="C1" s="2">
-        <v>94.8</v>
+        <v>85.8</v>
       </c>
       <c r="D1" s="2">
-        <v>86.6</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="E1" s="2">
-        <v>73.099999999999994</v>
+        <v>136.9</v>
       </c>
       <c r="F1" s="2">
-        <v>78.7</v>
+        <v>90</v>
       </c>
       <c r="G1" s="2">
-        <v>131.5</v>
+        <v>92.8</v>
       </c>
       <c r="H1" s="2">
-        <v>64.2</v>
+        <v>126.8</v>
       </c>
       <c r="I1" s="2">
-        <v>83.5</v>
+        <v>181.3</v>
       </c>
       <c r="J1" s="2">
-        <v>112.9</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>102.2</v>
+        <v>108.2</v>
       </c>
       <c r="B2" s="4">
-        <v>73.8</v>
+        <v>97.1</v>
       </c>
       <c r="C2" s="4">
-        <v>95.9</v>
+        <v>98</v>
       </c>
       <c r="D2" s="4">
-        <v>85.7</v>
+        <v>118.7</v>
       </c>
       <c r="E2" s="4">
-        <v>81.8</v>
+        <v>76.2</v>
       </c>
       <c r="F2" s="4">
-        <v>101.3</v>
+        <v>183.9</v>
       </c>
       <c r="G2" s="4">
-        <v>137.30000000000001</v>
+        <v>135.6</v>
       </c>
       <c r="H2" s="4">
-        <v>86.3</v>
+        <v>99.5</v>
       </c>
       <c r="I2" s="4">
-        <v>116.1</v>
+        <v>101.9</v>
       </c>
       <c r="J2" s="4">
-        <v>151.69999999999999</v>
+        <v>195.3</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>179.2</v>
+        <v>153.4</v>
       </c>
       <c r="B3" s="4">
-        <v>108.7</v>
+        <v>135.69999999999999</v>
       </c>
       <c r="C3" s="4">
-        <v>111</v>
+        <v>145.4</v>
       </c>
       <c r="D3" s="4">
-        <v>120.5</v>
+        <v>105.8</v>
       </c>
       <c r="E3" s="4">
-        <v>192.9</v>
+        <v>155.9</v>
       </c>
       <c r="F3" s="4">
-        <v>152.80000000000001</v>
+        <v>140.1</v>
       </c>
       <c r="G3" s="4">
-        <v>247.6</v>
+        <v>132</v>
       </c>
       <c r="H3" s="4">
-        <v>199.1</v>
+        <v>180.9</v>
       </c>
       <c r="I3" s="4">
-        <v>215.9</v>
+        <v>190</v>
       </c>
       <c r="J3" s="4">
-        <v>229.1</v>
+        <v>216.6</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>165.9</v>
+        <v>141.69999999999999</v>
       </c>
       <c r="B4" s="4">
-        <v>169.3</v>
+        <v>178.5</v>
       </c>
       <c r="C4" s="4">
-        <v>136.1</v>
+        <v>108.5</v>
       </c>
       <c r="D4" s="4">
-        <v>120.3</v>
+        <v>105.6</v>
       </c>
       <c r="E4" s="4">
-        <v>123.5</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="F4" s="4">
-        <v>98.3</v>
+        <v>132</v>
       </c>
       <c r="G4" s="4">
-        <v>142</v>
+        <v>187.3</v>
       </c>
       <c r="H4" s="4">
-        <v>192.6</v>
+        <v>180.7</v>
       </c>
       <c r="I4" s="4">
-        <v>121.1</v>
+        <v>162.4</v>
       </c>
       <c r="J4" s="4">
-        <v>252.5</v>
+        <v>144.9</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>110.3</v>
+        <v>134</v>
       </c>
       <c r="B5" s="4">
-        <v>127.6</v>
+        <v>139.4</v>
       </c>
       <c r="C5" s="4">
-        <v>176.6</v>
+        <v>133.6</v>
       </c>
       <c r="D5" s="4">
-        <v>158.1</v>
+        <v>109</v>
       </c>
       <c r="E5" s="4">
-        <v>138.30000000000001</v>
+        <v>159</v>
       </c>
       <c r="F5" s="4">
-        <v>132.6</v>
+        <v>135.6</v>
       </c>
       <c r="G5" s="4">
-        <v>115.5</v>
+        <v>172.3</v>
       </c>
       <c r="H5" s="4">
-        <v>173.3</v>
+        <v>174.4</v>
       </c>
       <c r="I5" s="4">
-        <v>161.19999999999999</v>
+        <v>111.8</v>
       </c>
       <c r="J5" s="4">
-        <v>114.4</v>
+        <v>83.6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -841,211 +841,211 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <f>A1-A9</f>
-        <v>-22.699999999999989</v>
+        <v>-146.5</v>
       </c>
       <c r="B18" s="11">
         <f>B1-B9</f>
-        <v>-11.199999999999989</v>
+        <v>39.200000000000017</v>
       </c>
       <c r="C18" s="11">
         <f t="shared" ref="C18:J18" si="0">C1-C9</f>
-        <v>-7.6000000000000085</v>
+        <v>-16.600000000000009</v>
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>3.8999999999999915</v>
+        <v>-7.1000000000000085</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>-3.2000000000000028</v>
+        <v>60.600000000000009</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="0"/>
-        <v>-9.2999999999999972</v>
+        <v>2</v>
       </c>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
-        <v>-32.199999999999989</v>
+        <v>-70.899999999999991</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="0"/>
-        <v>-10.599999999999994</v>
+        <v>52</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="0"/>
-        <v>-8.7999999999999972</v>
+        <v>89.000000000000014</v>
       </c>
       <c r="J18" s="11">
         <f t="shared" si="0"/>
-        <v>22.100000000000009</v>
+        <v>33.200000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <f t="shared" ref="A19:J19" si="1">A2-A10</f>
-        <v>1.7000000000000028</v>
+        <v>7.7000000000000028</v>
       </c>
       <c r="B19" s="11">
         <f t="shared" si="1"/>
-        <v>-16.100000000000009</v>
+        <v>7.1999999999999886</v>
       </c>
       <c r="C19" s="11">
         <f t="shared" si="1"/>
-        <v>2.7000000000000028</v>
+        <v>4.7999999999999972</v>
       </c>
       <c r="D19" s="11">
         <f t="shared" si="1"/>
-        <v>-8.2999999999999972</v>
+        <v>24.700000000000003</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>-1.0999999999999943</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>86.600000000000009</v>
       </c>
       <c r="G19" s="11">
         <f t="shared" si="1"/>
-        <v>18.700000000000017</v>
+        <v>17</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>24.200000000000003</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="1"/>
-        <v>-13.700000000000017</v>
+        <v>-27.900000000000006</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="1"/>
-        <v>1.8999999999999773</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <f t="shared" ref="A20:J20" si="2">A3-A11</f>
-        <v>-16.300000000000011</v>
+        <v>-42.099999999999994</v>
       </c>
       <c r="B20" s="11">
         <f t="shared" si="2"/>
-        <v>-23.600000000000009</v>
+        <v>3.3999999999999773</v>
       </c>
       <c r="C20" s="11">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>43.400000000000006</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>-16.700000000000003</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="2"/>
-        <v>-8.9000000000000057</v>
+        <v>-45.900000000000006</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-11.399999999999977</v>
+        <v>-24.099999999999994</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="2"/>
-        <v>-21.200000000000017</v>
+        <v>-136.80000000000001</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="2"/>
-        <v>-15.5</v>
+        <v>-33.699999999999989</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="2"/>
-        <v>-22.799999999999983</v>
+        <v>-48.699999999999989</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="2"/>
-        <v>-15.700000000000017</v>
+        <v>-28.200000000000017</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <f t="shared" ref="A21:J21" si="3">A4-A12</f>
-        <v>-21.400000000000006</v>
+        <v>-45.600000000000023</v>
       </c>
       <c r="B21" s="11">
         <f t="shared" si="3"/>
-        <v>6.3000000000000114</v>
+        <v>15.5</v>
       </c>
       <c r="C21" s="11">
         <f t="shared" si="3"/>
-        <v>-11</v>
+        <v>-38.599999999999994</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" si="3"/>
-        <v>-17.100000000000009</v>
+        <v>-31.800000000000011</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="3"/>
-        <v>-11.5</v>
+        <v>-68.599999999999994</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="3"/>
-        <v>-4.2999999999999972</v>
+        <v>29.400000000000006</v>
       </c>
       <c r="G21" s="11">
         <f t="shared" si="3"/>
-        <v>-4.5</v>
+        <v>40.800000000000011</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="3"/>
-        <v>-15.599999999999994</v>
+        <v>-27.5</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="3"/>
-        <v>-26.099999999999994</v>
+        <v>15.200000000000017</v>
       </c>
       <c r="J21" s="11">
         <f t="shared" si="3"/>
-        <v>0.59999999999999432</v>
+        <v>-107</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <f t="shared" ref="A22:J22" si="4">A5-A13</f>
-        <v>-17.799999999999997</v>
+        <v>5.9000000000000057</v>
       </c>
       <c r="B22" s="11">
         <f t="shared" si="4"/>
-        <v>-2.4000000000000057</v>
+        <v>9.4000000000000057</v>
       </c>
       <c r="C22" s="11">
         <f t="shared" si="4"/>
-        <v>-17.599999999999994</v>
+        <v>-60.599999999999994</v>
       </c>
       <c r="D22" s="11">
         <f t="shared" si="4"/>
-        <v>-18.700000000000017</v>
+        <v>-67.800000000000011</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="4"/>
-        <v>-28.899999999999977</v>
+        <v>-8.1999999999999886</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="4"/>
-        <v>-20.900000000000006</v>
+        <v>-17.900000000000006</v>
       </c>
       <c r="G22" s="11">
         <f t="shared" si="4"/>
-        <v>-26.5</v>
+        <v>30.300000000000011</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="4"/>
-        <v>-16.199999999999989</v>
+        <v>-15.099999999999994</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="4"/>
-        <v>-18.900000000000006</v>
+        <v>-68.3</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="4"/>
-        <v>-21.400000000000006</v>
+        <v>-52.200000000000017</v>
       </c>
     </row>
   </sheetData>

--- a/Table Difference Calculator.xlsx
+++ b/Table Difference Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ardab\OneDrive\Masaüstü\2021-2022\HiWi\nrf9160\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ECB475-0E74-4BD0-A449-FEA613DCBC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F5D87C-8DEB-48A2-9E5F-FD31860C9FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{4D32CC1B-AF36-45A9-A4A9-B40748BA1F19}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -154,7 +154,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60BBD99-82BF-43E1-9280-233DAD57AAAE}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:J22"/>
     </sheetView>
   </sheetViews>
@@ -479,162 +479,162 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>80.7</v>
+        <v>55.6</v>
       </c>
       <c r="B1" s="2">
-        <v>134.30000000000001</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="C1" s="2">
-        <v>85.8</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="D1" s="2">
-        <v>75.599999999999994</v>
+        <v>82.2</v>
       </c>
       <c r="E1" s="2">
-        <v>136.9</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2">
-        <v>90</v>
+        <v>70.7</v>
       </c>
       <c r="G1" s="2">
-        <v>92.8</v>
+        <v>84.6</v>
       </c>
       <c r="H1" s="2">
-        <v>126.8</v>
+        <v>71.3</v>
       </c>
       <c r="I1" s="2">
-        <v>181.3</v>
+        <v>123.6</v>
       </c>
       <c r="J1" s="2">
-        <v>124</v>
+        <v>148.19999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>108.2</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="B2" s="4">
-        <v>97.1</v>
+        <v>69.7</v>
       </c>
       <c r="C2" s="4">
-        <v>98</v>
+        <v>147.4</v>
       </c>
       <c r="D2" s="4">
-        <v>118.7</v>
+        <v>101.3</v>
       </c>
       <c r="E2" s="4">
-        <v>76.2</v>
+        <v>114.9</v>
       </c>
       <c r="F2" s="4">
-        <v>183.9</v>
+        <v>85.6</v>
       </c>
       <c r="G2" s="4">
-        <v>135.6</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="H2" s="4">
-        <v>99.5</v>
+        <v>181.4</v>
       </c>
       <c r="I2" s="4">
-        <v>101.9</v>
+        <v>137</v>
       </c>
       <c r="J2" s="4">
-        <v>195.3</v>
+        <v>128.1</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>153.4</v>
+        <v>85.5</v>
       </c>
       <c r="B3" s="4">
-        <v>135.69999999999999</v>
+        <v>54.3</v>
       </c>
       <c r="C3" s="4">
-        <v>145.4</v>
+        <v>145.5</v>
       </c>
       <c r="D3" s="4">
-        <v>105.8</v>
+        <v>148.5</v>
       </c>
       <c r="E3" s="4">
-        <v>155.9</v>
+        <v>111.1</v>
       </c>
       <c r="F3" s="4">
-        <v>140.1</v>
+        <v>77.2</v>
       </c>
       <c r="G3" s="4">
-        <v>132</v>
+        <v>60.5</v>
       </c>
       <c r="H3" s="4">
-        <v>180.9</v>
+        <v>159.4</v>
       </c>
       <c r="I3" s="4">
-        <v>190</v>
+        <v>136.1</v>
       </c>
       <c r="J3" s="4">
-        <v>216.6</v>
+        <v>148.1</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>141.69999999999999</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="B4" s="4">
-        <v>178.5</v>
+        <v>53.3</v>
       </c>
       <c r="C4" s="4">
-        <v>108.5</v>
+        <v>121.7</v>
       </c>
       <c r="D4" s="4">
-        <v>105.6</v>
+        <v>116.2</v>
       </c>
       <c r="E4" s="4">
-        <v>66.400000000000006</v>
+        <v>149.30000000000001</v>
       </c>
       <c r="F4" s="4">
-        <v>132</v>
+        <v>63.5</v>
       </c>
       <c r="G4" s="4">
-        <v>187.3</v>
+        <v>47.3</v>
       </c>
       <c r="H4" s="4">
-        <v>180.7</v>
+        <v>151.9</v>
       </c>
       <c r="I4" s="4">
-        <v>162.4</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="J4" s="4">
-        <v>144.9</v>
+        <v>171.2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>134</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="B5" s="4">
-        <v>139.4</v>
+        <v>57.9</v>
       </c>
       <c r="C5" s="4">
-        <v>133.6</v>
+        <v>109.5</v>
       </c>
       <c r="D5" s="4">
-        <v>109</v>
+        <v>141.4</v>
       </c>
       <c r="E5" s="4">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="F5" s="4">
-        <v>135.6</v>
+        <v>78.5</v>
       </c>
       <c r="G5" s="4">
-        <v>172.3</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="H5" s="4">
-        <v>174.4</v>
+        <v>187</v>
       </c>
       <c r="I5" s="4">
-        <v>111.8</v>
+        <v>140.1</v>
       </c>
       <c r="J5" s="4">
-        <v>83.6</v>
+        <v>131.1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -841,211 +841,211 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <f>A1-A9</f>
-        <v>-146.5</v>
+        <v>-171.6</v>
       </c>
       <c r="B18" s="11">
         <f>B1-B9</f>
-        <v>39.200000000000017</v>
+        <v>-28.5</v>
       </c>
       <c r="C18" s="11">
         <f t="shared" ref="C18:J18" si="0">C1-C9</f>
-        <v>-16.600000000000009</v>
+        <v>-30.5</v>
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>-7.1000000000000085</v>
+        <v>-0.5</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>60.600000000000009</v>
+        <v>-4.2999999999999972</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-17.299999999999997</v>
       </c>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
-        <v>-70.899999999999991</v>
+        <v>-79.099999999999994</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>-3.5</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="0"/>
-        <v>89.000000000000014</v>
+        <v>31.299999999999997</v>
       </c>
       <c r="J18" s="11">
         <f t="shared" si="0"/>
-        <v>33.200000000000003</v>
+        <v>57.399999999999991</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <f t="shared" ref="A19:J19" si="1">A2-A10</f>
-        <v>7.7000000000000028</v>
+        <v>-29.900000000000006</v>
       </c>
       <c r="B19" s="11">
         <f t="shared" si="1"/>
-        <v>7.1999999999999886</v>
+        <v>-20.200000000000003</v>
       </c>
       <c r="C19" s="11">
         <f t="shared" si="1"/>
-        <v>4.7999999999999972</v>
+        <v>54.2</v>
       </c>
       <c r="D19" s="11">
         <f t="shared" si="1"/>
-        <v>24.700000000000003</v>
+        <v>7.2999999999999972</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
-        <v>-1.0999999999999943</v>
+        <v>37.600000000000009</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
-        <v>86.600000000000009</v>
+        <v>-11.700000000000003</v>
       </c>
       <c r="G19" s="11">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>-52</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>24.200000000000003</v>
+        <v>106.10000000000001</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="1"/>
-        <v>-27.900000000000006</v>
+        <v>7.1999999999999886</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="1"/>
-        <v>45.5</v>
+        <v>-21.700000000000017</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <f t="shared" ref="A20:J20" si="2">A3-A11</f>
-        <v>-42.099999999999994</v>
+        <v>-110</v>
       </c>
       <c r="B20" s="11">
         <f t="shared" si="2"/>
-        <v>3.3999999999999773</v>
+        <v>-78.000000000000014</v>
       </c>
       <c r="C20" s="11">
         <f t="shared" si="2"/>
-        <v>43.400000000000006</v>
+        <v>43.5</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" si="2"/>
-        <v>-16.700000000000003</v>
+        <v>26</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="2"/>
-        <v>-45.900000000000006</v>
+        <v>-90.700000000000017</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-24.099999999999994</v>
+        <v>-86.999999999999986</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="2"/>
-        <v>-136.80000000000001</v>
+        <v>-208.3</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="2"/>
-        <v>-33.699999999999989</v>
+        <v>-55.199999999999989</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="2"/>
-        <v>-48.699999999999989</v>
+        <v>-102.6</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="2"/>
-        <v>-28.200000000000017</v>
+        <v>-96.700000000000017</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <f t="shared" ref="A21:J21" si="3">A4-A12</f>
-        <v>-45.600000000000023</v>
+        <v>-115.20000000000002</v>
       </c>
       <c r="B21" s="11">
         <f t="shared" si="3"/>
-        <v>15.5</v>
+        <v>-109.7</v>
       </c>
       <c r="C21" s="11">
         <f t="shared" si="3"/>
-        <v>-38.599999999999994</v>
+        <v>-25.399999999999991</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" si="3"/>
-        <v>-31.800000000000011</v>
+        <v>-21.200000000000003</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="3"/>
-        <v>-68.599999999999994</v>
+        <v>14.300000000000011</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="3"/>
-        <v>29.400000000000006</v>
+        <v>-39.099999999999994</v>
       </c>
       <c r="G21" s="11">
         <f t="shared" si="3"/>
-        <v>40.800000000000011</v>
+        <v>-99.2</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="3"/>
-        <v>-27.5</v>
+        <v>-56.299999999999983</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="3"/>
-        <v>15.200000000000017</v>
+        <v>14.600000000000023</v>
       </c>
       <c r="J21" s="11">
         <f t="shared" si="3"/>
-        <v>-107</v>
+        <v>-80.700000000000017</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <f t="shared" ref="A22:J22" si="4">A5-A13</f>
-        <v>5.9000000000000057</v>
+        <v>-55</v>
       </c>
       <c r="B22" s="11">
         <f t="shared" si="4"/>
-        <v>9.4000000000000057</v>
+        <v>-72.099999999999994</v>
       </c>
       <c r="C22" s="11">
         <f t="shared" si="4"/>
-        <v>-60.599999999999994</v>
+        <v>-84.699999999999989</v>
       </c>
       <c r="D22" s="11">
         <f t="shared" si="4"/>
-        <v>-67.800000000000011</v>
+        <v>-35.400000000000006</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="4"/>
-        <v>-8.1999999999999886</v>
+        <v>-38.199999999999989</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="4"/>
-        <v>-17.900000000000006</v>
+        <v>-75</v>
       </c>
       <c r="G22" s="11">
         <f t="shared" si="4"/>
-        <v>30.300000000000011</v>
+        <v>-63.599999999999994</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="4"/>
-        <v>-15.099999999999994</v>
+        <v>-2.5</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="4"/>
-        <v>-68.3</v>
+        <v>-40</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="4"/>
-        <v>-52.200000000000017</v>
+        <v>-4.7000000000000171</v>
       </c>
     </row>
   </sheetData>

--- a/Table Difference Calculator.xlsx
+++ b/Table Difference Calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ardab\OneDrive\Masaüstü\2021-2022\HiWi\nrf9160\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F5D87C-8DEB-48A2-9E5F-FD31860C9FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FE07AB-9053-48FF-AF7A-3066D2B88EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{4D32CC1B-AF36-45A9-A4A9-B40748BA1F19}"/>
+    <workbookView xWindow="2700" yWindow="1620" windowWidth="14040" windowHeight="8964" xr2:uid="{4D32CC1B-AF36-45A9-A4A9-B40748BA1F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,170 +471,170 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60BBD99-82BF-43E1-9280-233DAD57AAAE}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:J22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J22" sqref="A18:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>55.6</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2">
-        <v>66.599999999999994</v>
+        <v>17.3</v>
       </c>
       <c r="C1" s="2">
-        <v>71.900000000000006</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D1" s="2">
-        <v>82.2</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="E1" s="2">
-        <v>72</v>
+        <v>21.6</v>
       </c>
       <c r="F1" s="2">
-        <v>70.7</v>
+        <v>30.8</v>
       </c>
       <c r="G1" s="2">
-        <v>84.6</v>
+        <v>12.6</v>
       </c>
       <c r="H1" s="2">
-        <v>71.3</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="I1" s="2">
-        <v>123.6</v>
+        <v>104.5</v>
       </c>
       <c r="J1" s="2">
-        <v>148.19999999999999</v>
+        <v>133.80000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
-        <v>70.599999999999994</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4">
-        <v>69.7</v>
+        <v>23.8</v>
       </c>
       <c r="C2" s="4">
-        <v>147.4</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="D2" s="4">
-        <v>101.3</v>
+        <v>135.69999999999999</v>
       </c>
       <c r="E2" s="4">
-        <v>114.9</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="F2" s="4">
-        <v>85.6</v>
+        <v>35.4</v>
       </c>
       <c r="G2" s="4">
-        <v>66.599999999999994</v>
+        <v>16</v>
       </c>
       <c r="H2" s="4">
-        <v>181.4</v>
+        <v>117.6</v>
       </c>
       <c r="I2" s="4">
-        <v>137</v>
+        <v>72.7</v>
       </c>
       <c r="J2" s="4">
-        <v>128.1</v>
+        <v>161.19999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
-        <v>85.5</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="B3" s="4">
-        <v>54.3</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="C3" s="4">
-        <v>145.5</v>
+        <v>210.4</v>
       </c>
       <c r="D3" s="4">
-        <v>148.5</v>
+        <v>100.3</v>
       </c>
       <c r="E3" s="4">
-        <v>111.1</v>
+        <v>174.8</v>
       </c>
       <c r="F3" s="4">
-        <v>77.2</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="G3" s="4">
-        <v>60.5</v>
+        <v>20.6</v>
       </c>
       <c r="H3" s="4">
-        <v>159.4</v>
+        <v>174.5</v>
       </c>
       <c r="I3" s="4">
-        <v>136.1</v>
+        <v>111.4</v>
       </c>
       <c r="J3" s="4">
-        <v>148.1</v>
+        <v>118.1</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
-        <v>72.099999999999994</v>
+        <v>37.4</v>
       </c>
       <c r="B4" s="4">
-        <v>53.3</v>
+        <v>60.8</v>
       </c>
       <c r="C4" s="4">
-        <v>121.7</v>
+        <v>165.1</v>
       </c>
       <c r="D4" s="4">
-        <v>116.2</v>
+        <v>189.1</v>
       </c>
       <c r="E4" s="4">
-        <v>149.30000000000001</v>
+        <v>166.3</v>
       </c>
       <c r="F4" s="4">
-        <v>63.5</v>
+        <v>42.2</v>
       </c>
       <c r="G4" s="4">
-        <v>47.3</v>
+        <v>187.8</v>
       </c>
       <c r="H4" s="4">
-        <v>151.9</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="I4" s="4">
-        <v>161.80000000000001</v>
+        <v>184.7</v>
       </c>
       <c r="J4" s="4">
-        <v>171.2</v>
+        <v>180.8</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
-        <v>73.099999999999994</v>
+        <v>41.5</v>
       </c>
       <c r="B5" s="4">
-        <v>57.9</v>
+        <v>251.4</v>
       </c>
       <c r="C5" s="4">
-        <v>109.5</v>
+        <v>135.1</v>
       </c>
       <c r="D5" s="4">
-        <v>141.4</v>
+        <v>205.1</v>
       </c>
       <c r="E5" s="4">
-        <v>129</v>
+        <v>139.5</v>
       </c>
       <c r="F5" s="4">
-        <v>78.5</v>
+        <v>69.3</v>
       </c>
       <c r="G5" s="4">
-        <v>78.400000000000006</v>
+        <v>129.5</v>
       </c>
       <c r="H5" s="4">
-        <v>187</v>
+        <v>201.6</v>
       </c>
       <c r="I5" s="4">
-        <v>140.1</v>
+        <v>195.8</v>
       </c>
       <c r="J5" s="4">
-        <v>131.1</v>
+        <v>141.9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -841,211 +841,211 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <f>A1-A9</f>
-        <v>-171.6</v>
+        <v>-196.2</v>
       </c>
       <c r="B18" s="11">
         <f>B1-B9</f>
-        <v>-28.5</v>
+        <v>-77.8</v>
       </c>
       <c r="C18" s="11">
         <f t="shared" ref="C18:J18" si="0">C1-C9</f>
-        <v>-30.5</v>
+        <v>-82.300000000000011</v>
       </c>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>-49.900000000000006</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>-4.2999999999999972</v>
+        <v>-54.699999999999996</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="0"/>
-        <v>-17.299999999999997</v>
+        <v>-57.2</v>
       </c>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
-        <v>-79.099999999999994</v>
+        <v>-151.1</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="0"/>
-        <v>-3.5</v>
+        <v>-6.2000000000000028</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="0"/>
-        <v>31.299999999999997</v>
+        <v>12.200000000000003</v>
       </c>
       <c r="J18" s="11">
         <f t="shared" si="0"/>
-        <v>57.399999999999991</v>
+        <v>43.000000000000014</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <f t="shared" ref="A19:J19" si="1">A2-A10</f>
-        <v>-29.900000000000006</v>
+        <v>-72.5</v>
       </c>
       <c r="B19" s="11">
         <f t="shared" si="1"/>
-        <v>-20.200000000000003</v>
+        <v>-66.100000000000009</v>
       </c>
       <c r="C19" s="11">
         <f t="shared" si="1"/>
-        <v>54.2</v>
+        <v>67.100000000000009</v>
       </c>
       <c r="D19" s="11">
         <f t="shared" si="1"/>
-        <v>7.2999999999999972</v>
+        <v>41.699999999999989</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="1"/>
-        <v>37.600000000000009</v>
+        <v>59.899999999999991</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
-        <v>-11.700000000000003</v>
+        <v>-61.9</v>
       </c>
       <c r="G19" s="11">
         <f t="shared" si="1"/>
-        <v>-52</v>
+        <v>-102.6</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>106.10000000000001</v>
+        <v>42.3</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="1"/>
-        <v>7.1999999999999886</v>
+        <v>-57.100000000000009</v>
       </c>
       <c r="J19" s="11">
         <f t="shared" si="1"/>
-        <v>-21.700000000000017</v>
+        <v>11.399999999999977</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <f t="shared" ref="A20:J20" si="2">A3-A11</f>
-        <v>-110</v>
+        <v>-163.30000000000001</v>
       </c>
       <c r="B20" s="11">
         <f t="shared" si="2"/>
-        <v>-78.000000000000014</v>
+        <v>-98.600000000000009</v>
       </c>
       <c r="C20" s="11">
         <f t="shared" si="2"/>
-        <v>43.5</v>
+        <v>108.4</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>-22.200000000000003</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="2"/>
-        <v>-90.700000000000017</v>
+        <v>-27</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="2"/>
-        <v>-86.999999999999986</v>
+        <v>-126.39999999999999</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="2"/>
-        <v>-208.3</v>
+        <v>-248.20000000000002</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="2"/>
-        <v>-55.199999999999989</v>
+        <v>-40.099999999999994</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="2"/>
-        <v>-102.6</v>
+        <v>-127.29999999999998</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="2"/>
-        <v>-96.700000000000017</v>
+        <v>-126.70000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <f t="shared" ref="A21:J21" si="3">A4-A12</f>
-        <v>-115.20000000000002</v>
+        <v>-149.9</v>
       </c>
       <c r="B21" s="11">
         <f t="shared" si="3"/>
-        <v>-109.7</v>
+        <v>-102.2</v>
       </c>
       <c r="C21" s="11">
         <f t="shared" si="3"/>
-        <v>-25.399999999999991</v>
+        <v>18</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" si="3"/>
-        <v>-21.200000000000003</v>
+        <v>51.699999999999989</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="3"/>
-        <v>14.300000000000011</v>
+        <v>31.300000000000011</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="3"/>
-        <v>-39.099999999999994</v>
+        <v>-60.399999999999991</v>
       </c>
       <c r="G21" s="11">
         <f t="shared" si="3"/>
-        <v>-99.2</v>
+        <v>41.300000000000011</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="3"/>
-        <v>-56.299999999999983</v>
+        <v>-46.399999999999977</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="3"/>
-        <v>14.600000000000023</v>
+        <v>37.5</v>
       </c>
       <c r="J21" s="11">
         <f t="shared" si="3"/>
-        <v>-80.700000000000017</v>
+        <v>-71.099999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <f t="shared" ref="A22:J22" si="4">A5-A13</f>
-        <v>-55</v>
+        <v>-86.6</v>
       </c>
       <c r="B22" s="11">
         <f t="shared" si="4"/>
-        <v>-72.099999999999994</v>
+        <v>121.4</v>
       </c>
       <c r="C22" s="11">
         <f t="shared" si="4"/>
-        <v>-84.699999999999989</v>
+        <v>-59.099999999999994</v>
       </c>
       <c r="D22" s="11">
         <f t="shared" si="4"/>
-        <v>-35.400000000000006</v>
+        <v>28.299999999999983</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="4"/>
-        <v>-38.199999999999989</v>
+        <v>-27.699999999999989</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="4"/>
-        <v>-75</v>
+        <v>-84.2</v>
       </c>
       <c r="G22" s="11">
         <f t="shared" si="4"/>
-        <v>-63.599999999999994</v>
+        <v>-12.5</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="4"/>
-        <v>-2.5</v>
+        <v>12.099999999999994</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="4"/>
-        <v>-40</v>
+        <v>15.700000000000017</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="4"/>
-        <v>-4.7000000000000171</v>
+        <v>6.0999999999999943</v>
       </c>
     </row>
   </sheetData>
